--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl2-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.17439995018504</v>
+        <v>4.025457</v>
       </c>
       <c r="H2">
-        <v>1.17439995018504</v>
+        <v>12.076371</v>
       </c>
       <c r="I2">
-        <v>0.00282104125513921</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J2">
-        <v>0.00282104125513921</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N2">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q2">
-        <v>0.3435494358427034</v>
+        <v>0.53291683404</v>
       </c>
       <c r="R2">
-        <v>0.3435494358427034</v>
+        <v>4.796251506359999</v>
       </c>
       <c r="S2">
-        <v>0.00282104125513921</v>
+        <v>0.002378288211806323</v>
       </c>
       <c r="T2">
-        <v>0.00282104125513921</v>
+        <v>0.002397779785988072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>132.092397373363</v>
+        <v>4.025457</v>
       </c>
       <c r="H3">
-        <v>132.092397373363</v>
+        <v>12.076371</v>
       </c>
       <c r="I3">
-        <v>0.3173008500398743</v>
+        <v>0.007988230327331255</v>
       </c>
       <c r="J3">
-        <v>0.3173008500398743</v>
+        <v>0.008053698920764607</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292531888977493</v>
+        <v>0.3122756666666667</v>
       </c>
       <c r="N3">
-        <v>0.292531888977493</v>
+        <v>0.936827</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7022759592109968</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7022759592109967</v>
       </c>
       <c r="Q3">
-        <v>38.64123852319552</v>
+        <v>1.257052268313</v>
       </c>
       <c r="R3">
-        <v>38.64123852319552</v>
+        <v>11.313470414817</v>
       </c>
       <c r="S3">
-        <v>0.3173008500398743</v>
+        <v>0.005609942115524932</v>
       </c>
       <c r="T3">
-        <v>0.3173008500398743</v>
+        <v>0.005655919134776533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.0814320131703</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H4">
-        <v>80.0814320131703</v>
+        <v>429.64891</v>
       </c>
       <c r="I4">
-        <v>0.1923646398692235</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J4">
-        <v>0.1923646398692235</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N4">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q4">
-        <v>23.42637257883539</v>
+        <v>18.95992901062222</v>
       </c>
       <c r="R4">
-        <v>23.42637257883539</v>
+        <v>170.6393610956</v>
       </c>
       <c r="S4">
-        <v>0.1923646398692235</v>
+        <v>0.08461390742868331</v>
       </c>
       <c r="T4">
-        <v>0.1923646398692235</v>
+        <v>0.08530737184786794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>193.981490831506</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H5">
-        <v>193.981490831506</v>
+        <v>429.64891</v>
       </c>
       <c r="I5">
-        <v>0.4659654390166353</v>
+        <v>0.2842024688515132</v>
       </c>
       <c r="J5">
-        <v>0.4659654390166353</v>
+        <v>0.2865316876050504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.292531888977493</v>
+        <v>0.3122756666666667</v>
       </c>
       <c r="N5">
-        <v>0.292531888977493</v>
+        <v>0.936827</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7022759592109968</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7022759592109967</v>
       </c>
       <c r="Q5">
-        <v>56.74577193961068</v>
+        <v>44.72296660095223</v>
       </c>
       <c r="R5">
-        <v>56.74577193961068</v>
+        <v>402.50669940857</v>
       </c>
       <c r="S5">
-        <v>0.4659654390166353</v>
+        <v>0.1995885614228299</v>
       </c>
       <c r="T5">
-        <v>0.4659654390166353</v>
+        <v>0.2012243157571824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H6">
+        <v>257.161236</v>
+      </c>
+      <c r="I6">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J6">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.39716</v>
+      </c>
+      <c r="O6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q6">
+        <v>11.34823960997333</v>
+      </c>
+      <c r="R6">
+        <v>102.13415648976</v>
+      </c>
+      <c r="S6">
+        <v>0.05064464615341345</v>
+      </c>
+      <c r="T6">
+        <v>0.05105971101918848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>8.97044844702928</v>
-      </c>
-      <c r="H6">
-        <v>8.97044844702928</v>
-      </c>
-      <c r="I6">
-        <v>0.02154802981912747</v>
-      </c>
-      <c r="J6">
-        <v>0.02154802981912747</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="N6">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>2.624142229184694</v>
-      </c>
-      <c r="R6">
-        <v>2.624142229184694</v>
-      </c>
-      <c r="S6">
-        <v>0.02154802981912747</v>
-      </c>
-      <c r="T6">
-        <v>0.02154802981912747</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>85.72041200000001</v>
+      </c>
+      <c r="H7">
+        <v>257.161236</v>
+      </c>
+      <c r="I7">
+        <v>0.1701060015818651</v>
+      </c>
+      <c r="J7">
+        <v>0.1715001277151632</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.936827</v>
+      </c>
+      <c r="O7">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P7">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q7">
+        <v>26.76839880424134</v>
+      </c>
+      <c r="R7">
+        <v>240.915589238172</v>
+      </c>
+      <c r="S7">
+        <v>0.1194613554284517</v>
+      </c>
+      <c r="T7">
+        <v>0.1204404166959746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>258.672133</v>
+      </c>
+      <c r="H8">
+        <v>776.016399</v>
+      </c>
+      <c r="I8">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J8">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.39716</v>
+      </c>
+      <c r="O8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q8">
+        <v>34.24474144742666</v>
+      </c>
+      <c r="R8">
+        <v>308.2026730268399</v>
+      </c>
+      <c r="S8">
+        <v>0.1528265945050952</v>
+      </c>
+      <c r="T8">
+        <v>0.1540791049825692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>258.672133</v>
+      </c>
+      <c r="H9">
+        <v>776.016399</v>
+      </c>
+      <c r="I9">
+        <v>0.5133162713366615</v>
+      </c>
+      <c r="J9">
+        <v>0.5175232224251752</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.936827</v>
+      </c>
+      <c r="O9">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P9">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q9">
+        <v>80.77701278066365</v>
+      </c>
+      <c r="R9">
+        <v>726.993115025973</v>
+      </c>
+      <c r="S9">
+        <v>0.3604896768315662</v>
+      </c>
+      <c r="T9">
+        <v>0.363444117442606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.2891965</v>
+      </c>
+      <c r="H10">
+        <v>24.578393</v>
+      </c>
+      <c r="I10">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J10">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.39716</v>
+      </c>
+      <c r="O10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q10">
+        <v>1.626925760646666</v>
+      </c>
+      <c r="R10">
+        <v>9.761554563879999</v>
+      </c>
+      <c r="S10">
+        <v>0.007260604490004865</v>
+      </c>
+      <c r="T10">
+        <v>0.004880073153389436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.2891965</v>
+      </c>
+      <c r="H11">
+        <v>24.578393</v>
+      </c>
+      <c r="I11">
+        <v>0.02438702790262897</v>
+      </c>
+      <c r="J11">
+        <v>0.0163912633338466</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.936827</v>
+      </c>
+      <c r="O11">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P11">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q11">
+        <v>3.837617029835167</v>
+      </c>
+      <c r="R11">
+        <v>23.025702179011</v>
+      </c>
+      <c r="S11">
+        <v>0.0171264234126241</v>
+      </c>
+      <c r="T11">
+        <v>0.01151119018045716</v>
       </c>
     </row>
   </sheetData>
